--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:41:09+00:00</t>
+    <t>2025-10-23T09:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:00:48+00:00</t>
+    <t>2025-11-18T09:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:01:12+00:00</t>
+    <t>2025-11-18T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:36:46+00:00</t>
+    <t>2025-11-18T09:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:43:16+00:00</t>
+    <t>2025-11-18T10:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:05:08+00:00</t>
+    <t>2025-11-18T10:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:22:08+00:00</t>
+    <t>2025-11-18T10:33:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:33:59+00:00</t>
+    <t>2025-11-18T10:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-discharge-medication-vs.xlsx
+++ b/ValueSet-discharge-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:41:07+00:00</t>
+    <t>2025-11-18T10:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
